--- a/src/test/resources/Sample.xlsx
+++ b/src/test/resources/Sample.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Hotel Name</t>
   </si>
   <si>
     <t>Club Mahindra</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>iPhone XR (64GB) - Yellow</t>
   </si>
 </sst>
 </file>
@@ -353,25 +359,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
